--- a/key_value_storage/measurements/results/Trie.xlsx
+++ b/key_value_storage/measurements/results/Trie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="160">
   <si>
     <t/>
   </si>
@@ -70,187 +70,187 @@
     <t>Δ Allocated memory</t>
   </si>
   <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>3536</t>
-  </si>
-  <si>
-    <t>50668</t>
-  </si>
-  <si>
-    <t>690232</t>
-  </si>
-  <si>
-    <t>8798756</t>
-  </si>
-  <si>
-    <t>107080504</t>
-  </si>
-  <si>
-    <t>1257200032</t>
+    <t>276</t>
+  </si>
+  <si>
+    <t>3196</t>
+  </si>
+  <si>
+    <t>50160</t>
+  </si>
+  <si>
+    <t>689120</t>
+  </si>
+  <si>
+    <t>8797908</t>
+  </si>
+  <si>
+    <t>107079432</t>
+  </si>
+  <si>
+    <t>1257198840</t>
   </si>
   <si>
     <t>Δ Reclaimed memory</t>
   </si>
   <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>2864</t>
-  </si>
-  <si>
-    <t>44056</t>
-  </si>
-  <si>
-    <t>626928</t>
-  </si>
-  <si>
-    <t>8163156</t>
-  </si>
-  <si>
-    <t>100517772</t>
-  </si>
-  <si>
-    <t>1187120144</t>
+    <t>192</t>
+  </si>
+  <si>
+    <t>2576</t>
+  </si>
+  <si>
+    <t>43600</t>
+  </si>
+  <si>
+    <t>625936</t>
+  </si>
+  <si>
+    <t>8162360</t>
+  </si>
+  <si>
+    <t>100516752</t>
+  </si>
+  <si>
+    <t>1187119004</t>
   </si>
   <si>
     <t>Δ Heap memory</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>672</t>
-  </si>
-  <si>
-    <t>6612</t>
-  </si>
-  <si>
-    <t>63304</t>
-  </si>
-  <si>
-    <t>635600</t>
-  </si>
-  <si>
-    <t>6562732</t>
-  </si>
-  <si>
-    <t>70079960</t>
+    <t>84</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>6560</t>
+  </si>
+  <si>
+    <t>63184</t>
+  </si>
+  <si>
+    <t>635548</t>
+  </si>
+  <si>
+    <t>6562680</t>
+  </si>
+  <si>
+    <t>70079908</t>
   </si>
   <si>
     <t>Δ Instructions</t>
   </si>
   <si>
-    <t>3393</t>
-  </si>
-  <si>
-    <t>38013</t>
-  </si>
-  <si>
-    <t>649497</t>
-  </si>
-  <si>
-    <t>9303445</t>
-  </si>
-  <si>
-    <t>120066848</t>
-  </si>
-  <si>
-    <t>1470952283</t>
-  </si>
-  <si>
-    <t>17306780331</t>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>33621</t>
+  </si>
+  <si>
+    <t>643091</t>
+  </si>
+  <si>
+    <t>9289225</t>
+  </si>
+  <si>
+    <t>120055953</t>
+  </si>
+  <si>
+    <t>1470937434</t>
+  </si>
+  <si>
+    <t>17306763986</t>
   </si>
   <si>
     <t>Δ GC instructions</t>
   </si>
   <si>
-    <t>2919</t>
-  </si>
-  <si>
-    <t>14379</t>
-  </si>
-  <si>
-    <t>141629</t>
-  </si>
-  <si>
-    <t>1359769</t>
-  </si>
-  <si>
-    <t>13648641</t>
-  </si>
-  <si>
-    <t>140667936</t>
-  </si>
-  <si>
-    <t>1566622383</t>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>13256</t>
+  </si>
+  <si>
+    <t>140494</t>
+  </si>
+  <si>
+    <t>1357257</t>
+  </si>
+  <si>
+    <t>13647518</t>
+  </si>
+  <si>
+    <t>140666801</t>
+  </si>
+  <si>
+    <t>1566621248</t>
   </si>
   <si>
     <t>Δ Mutator instructions</t>
   </si>
   <si>
-    <t>9576</t>
-  </si>
-  <si>
-    <t>45258</t>
-  </si>
-  <si>
-    <t>667362</t>
-  </si>
-  <si>
-    <t>9427531</t>
-  </si>
-  <si>
-    <t>121252934</t>
-  </si>
-  <si>
-    <t>1482758390</t>
-  </si>
-  <si>
-    <t>17424786470</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>1376</t>
-  </si>
-  <si>
-    <t>13628</t>
-  </si>
-  <si>
-    <t>146840</t>
-  </si>
-  <si>
-    <t>1586856</t>
-  </si>
-  <si>
-    <t>17426872</t>
-  </si>
-  <si>
-    <t>203026912</t>
-  </si>
-  <si>
-    <t>2430</t>
-  </si>
-  <si>
-    <t>21439</t>
-  </si>
-  <si>
-    <t>337642</t>
-  </si>
-  <si>
-    <t>4812224</t>
-  </si>
-  <si>
-    <t>62609168</t>
-  </si>
-  <si>
-    <t>767623093</t>
-  </si>
-  <si>
-    <t>9060769150</t>
+    <t>7508</t>
+  </si>
+  <si>
+    <t>40789</t>
+  </si>
+  <si>
+    <t>660879</t>
+  </si>
+  <si>
+    <t>9413234</t>
+  </si>
+  <si>
+    <t>121241962</t>
+  </si>
+  <si>
+    <t>1482743464</t>
+  </si>
+  <si>
+    <t>17424770048</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>13480</t>
+  </si>
+  <si>
+    <t>146680</t>
+  </si>
+  <si>
+    <t>1586680</t>
+  </si>
+  <si>
+    <t>17426680</t>
+  </si>
+  <si>
+    <t>203026704</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>18648</t>
+  </si>
+  <si>
+    <t>333771</t>
+  </si>
+  <si>
+    <t>4807217</t>
+  </si>
+  <si>
+    <t>62602733</t>
+  </si>
+  <si>
+    <t>767614429</t>
+  </si>
+  <si>
+    <t>9060765761</t>
   </si>
   <si>
     <t>-368</t>
@@ -265,25 +265,25 @@
     <t>-393392</t>
   </si>
   <si>
-    <t>8613</t>
-  </si>
-  <si>
-    <t>28684</t>
-  </si>
-  <si>
-    <t>355507</t>
-  </si>
-  <si>
-    <t>4936310</t>
-  </si>
-  <si>
-    <t>63795254</t>
-  </si>
-  <si>
-    <t>779429200</t>
-  </si>
-  <si>
-    <t>9178775289</t>
+    <t>7123</t>
+  </si>
+  <si>
+    <t>25816</t>
+  </si>
+  <si>
+    <t>351559</t>
+  </si>
+  <si>
+    <t>4931226</t>
+  </si>
+  <si>
+    <t>63788742</t>
+  </si>
+  <si>
+    <t>779420459</t>
+  </si>
+  <si>
+    <t>9178771823</t>
   </si>
   <si>
     <t>131072</t>
@@ -298,46 +298,43 @@
     <t>167313408</t>
   </si>
   <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>4420</t>
-  </si>
-  <si>
-    <t>60124</t>
-  </si>
-  <si>
-    <t>790204</t>
-  </si>
-  <si>
-    <t>9796784</t>
-  </si>
-  <si>
-    <t>116607728</t>
-  </si>
-  <si>
-    <t>1354426100</t>
-  </si>
-  <si>
-    <t>4236</t>
-  </si>
-  <si>
-    <t>47361</t>
-  </si>
-  <si>
-    <t>715291</t>
-  </si>
-  <si>
-    <t>9990500</t>
-  </si>
-  <si>
-    <t>127518907</t>
-  </si>
-  <si>
-    <t>1535074194</t>
-  </si>
-  <si>
-    <t>17976254680</t>
+    <t>3920</t>
+  </si>
+  <si>
+    <t>59488</t>
+  </si>
+  <si>
+    <t>789392</t>
+  </si>
+  <si>
+    <t>9795840</t>
+  </si>
+  <si>
+    <t>116606464</t>
+  </si>
+  <si>
+    <t>1354424748</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>40708</t>
+  </si>
+  <si>
+    <t>707039</t>
+  </si>
+  <si>
+    <t>9985485</t>
+  </si>
+  <si>
+    <t>127506457</t>
+  </si>
+  <si>
+    <t>1535060761</t>
+  </si>
+  <si>
+    <t>17976234960</t>
   </si>
   <si>
     <t>368</t>
@@ -352,151 +349,151 @@
     <t>393392</t>
   </si>
   <si>
-    <t>10419</t>
-  </si>
-  <si>
-    <t>54606</t>
-  </si>
-  <si>
-    <t>733156</t>
-  </si>
-  <si>
-    <t>10114586</t>
-  </si>
-  <si>
-    <t>128704993</t>
-  </si>
-  <si>
-    <t>1546880301</t>
-  </si>
-  <si>
-    <t>18094260819</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>3552</t>
-  </si>
-  <si>
-    <t>49772</t>
-  </si>
-  <si>
-    <t>684536</t>
-  </si>
-  <si>
-    <t>8730756</t>
-  </si>
-  <si>
-    <t>105345896</t>
-  </si>
-  <si>
-    <t>1250500204</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>4192</t>
-  </si>
-  <si>
-    <t>56352</t>
-  </si>
-  <si>
-    <t>747808</t>
-  </si>
-  <si>
-    <t>9366324</t>
-  </si>
-  <si>
-    <t>111908596</t>
-  </si>
-  <si>
-    <t>1320580024</t>
-  </si>
-  <si>
-    <t>-104</t>
-  </si>
-  <si>
-    <t>-640</t>
-  </si>
-  <si>
-    <t>-6580</t>
-  </si>
-  <si>
-    <t>-63272</t>
-  </si>
-  <si>
-    <t>-635568</t>
-  </si>
-  <si>
-    <t>-6562700</t>
-  </si>
-  <si>
-    <t>-70079820</t>
-  </si>
-  <si>
-    <t>3510</t>
-  </si>
-  <si>
-    <t>35852</t>
-  </si>
-  <si>
-    <t>596281</t>
-  </si>
-  <si>
-    <t>8731261</t>
-  </si>
-  <si>
-    <t>114537220</t>
-  </si>
-  <si>
-    <t>1406653867</t>
-  </si>
-  <si>
-    <t>16769607393</t>
-  </si>
-  <si>
-    <t>-2240</t>
-  </si>
-  <si>
-    <t>-13700</t>
-  </si>
-  <si>
-    <t>-141318</t>
-  </si>
-  <si>
-    <t>-1359090</t>
-  </si>
-  <si>
-    <t>-13647962</t>
-  </si>
-  <si>
-    <t>-140667257</t>
-  </si>
-  <si>
-    <t>-1566621704</t>
-  </si>
-  <si>
-    <t>9693</t>
-  </si>
-  <si>
-    <t>43097</t>
-  </si>
-  <si>
-    <t>614146</t>
-  </si>
-  <si>
-    <t>8855347</t>
-  </si>
-  <si>
-    <t>115723306</t>
-  </si>
-  <si>
-    <t>1418459974</t>
-  </si>
-  <si>
-    <t>16887613532</t>
+    <t>7750</t>
+  </si>
+  <si>
+    <t>47876</t>
+  </si>
+  <si>
+    <t>724827</t>
+  </si>
+  <si>
+    <t>10109494</t>
+  </si>
+  <si>
+    <t>128692466</t>
+  </si>
+  <si>
+    <t>1546866791</t>
+  </si>
+  <si>
+    <t>18094241022</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>3148</t>
+  </si>
+  <si>
+    <t>49184</t>
+  </si>
+  <si>
+    <t>683776</t>
+  </si>
+  <si>
+    <t>8729924</t>
+  </si>
+  <si>
+    <t>105344280</t>
+  </si>
+  <si>
+    <t>1250498980</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>3736</t>
+  </si>
+  <si>
+    <t>55712</t>
+  </si>
+  <si>
+    <t>746928</t>
+  </si>
+  <si>
+    <t>9365440</t>
+  </si>
+  <si>
+    <t>111906928</t>
+  </si>
+  <si>
+    <t>1320578748</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>-588</t>
+  </si>
+  <si>
+    <t>-6528</t>
+  </si>
+  <si>
+    <t>-63152</t>
+  </si>
+  <si>
+    <t>-635516</t>
+  </si>
+  <si>
+    <t>-6562648</t>
+  </si>
+  <si>
+    <t>-70079768</t>
+  </si>
+  <si>
+    <t>1457</t>
+  </si>
+  <si>
+    <t>31270</t>
+  </si>
+  <si>
+    <t>589082</t>
+  </si>
+  <si>
+    <t>8723257</t>
+  </si>
+  <si>
+    <t>114526437</t>
+  </si>
+  <si>
+    <t>1406632971</t>
+  </si>
+  <si>
+    <t>16769589620</t>
+  </si>
+  <si>
+    <t>-1124</t>
+  </si>
+  <si>
+    <t>-12577</t>
+  </si>
+  <si>
+    <t>-140183</t>
+  </si>
+  <si>
+    <t>-1356578</t>
+  </si>
+  <si>
+    <t>-13646839</t>
+  </si>
+  <si>
+    <t>-140666122</t>
+  </si>
+  <si>
+    <t>-1566620569</t>
+  </si>
+  <si>
+    <t>7563</t>
+  </si>
+  <si>
+    <t>38438</t>
+  </si>
+  <si>
+    <t>606870</t>
+  </si>
+  <si>
+    <t>8847266</t>
+  </si>
+  <si>
+    <t>115712446</t>
+  </si>
+  <si>
+    <t>1418439001</t>
+  </si>
+  <si>
+    <t>16887595682</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1436,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -1539,25 +1536,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>94</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>97</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>98</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -1568,25 +1565,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>96</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>97</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>98</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>100</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -1626,25 +1623,25 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>102</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>103</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>104</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>105</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>106</v>
-      </c>
-      <c r="H7" t="s">
-        <v>107</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -1661,19 +1658,19 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
         <v>108</v>
       </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>109</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>110</v>
-      </c>
-      <c r="H8" t="s">
-        <v>111</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1684,25 +1681,25 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
         <v>112</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>113</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>114</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>115</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>116</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>117</v>
-      </c>
-      <c r="H9" t="s">
-        <v>118</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1820,25 +1817,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>120</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>121</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>122</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>123</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>124</v>
-      </c>
-      <c r="H4" t="s">
-        <v>125</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -1849,25 +1846,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
         <v>126</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>127</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>128</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>129</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>130</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>131</v>
-      </c>
-      <c r="H5" t="s">
-        <v>132</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -1878,25 +1875,25 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
         <v>133</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>134</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>135</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>136</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>137</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>138</v>
-      </c>
-      <c r="H6" t="s">
-        <v>139</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -1907,25 +1904,25 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
         <v>140</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>141</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>142</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>143</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>144</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>145</v>
-      </c>
-      <c r="H7" t="s">
-        <v>146</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -1936,25 +1933,25 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
         <v>147</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>148</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>149</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>150</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>151</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>152</v>
-      </c>
-      <c r="H8" t="s">
-        <v>153</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1965,25 +1962,25 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
         <v>154</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>155</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>156</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>157</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>158</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>159</v>
-      </c>
-      <c r="H9" t="s">
-        <v>160</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
